--- a/src-tauri/assets/crimping_report_template_1.xlsx
+++ b/src-tauri/assets/crimping_report_template_1.xlsx
@@ -80,12 +80,6 @@
     <t>2.2. Расчет количества операций обжима и технологических сил</t>
   </si>
   <si>
-    <t>Предельный коэффициент обжима</t>
-  </si>
-  <si>
-    <t>Итоговый коэффициент обжима за весь процесс</t>
-  </si>
-  <si>
     <t>Коэффициент деформации</t>
   </si>
   <si>
@@ -129,6 +123,12 @@
   </si>
   <si>
     <t>Радиус скругления, гр</t>
+  </si>
+  <si>
+    <t>Угол b, гр</t>
+  </si>
+  <si>
+    <t>Предельный коэф. обжима, мм</t>
   </si>
 </sst>
 </file>
@@ -289,6 +289,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -304,6 +310,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -313,23 +325,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I120"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A43" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A46" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -625,437 +625,430 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="13" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="16" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="16" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="16"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="16" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="16"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="16"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="16"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="46" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="46" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-    </row>
-    <row r="47" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="11"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="13"/>
       <c r="H49"/>
       <c r="I49"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="13"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="11"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="11"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="16"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
@@ -1094,26 +1087,20 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="F52:G52"/>
     <mergeCell ref="A53:E53"/>
     <mergeCell ref="F53:G53"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="A18:I18"/>
@@ -1124,27 +1111,33 @@
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A8:I8"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="A52:E52"/>
     <mergeCell ref="A49:E49"/>
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="F55:G55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
